--- a/Implementation of Data Strucutres and Algorithms/Project 0/Project0_Report.xlsx
+++ b/Implementation of Data Strucutres and Algorithms/Project 0/Project0_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himanshu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himanshu\Documents\Academic_Projects\Implementation of Data Strucutres and Algorithms\Project 0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,10 +53,10 @@
     <t>100 million</t>
   </si>
   <si>
-    <t>out of memory exception</t>
-  </si>
-  <si>
     <t>Though MergeSort and PriorityQueue both have O(NlogN) running time but from this analysis we are able to see that when input increases above 1million MergeSort running time is slightly better than PriorityQueue. Running time remains almost same for both sorts till input =1million</t>
+  </si>
+  <si>
+    <t>OutOfMemoryError exception</t>
   </si>
 </sst>
 </file>
@@ -111,12 +111,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -404,7 +404,7 @@
   <dimension ref="B2:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,19 +415,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -480,16 +480,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>

--- a/Implementation of Data Strucutres and Algorithms/Project 0/Project0_Report.xlsx
+++ b/Implementation of Data Strucutres and Algorithms/Project 0/Project0_Report.xlsx
@@ -138,6 +138,1194 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (Input vs running time)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29375000000000001"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MergeSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 million</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 million</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 million</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10 million</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PriorityQueue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 million</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 million</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 million</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10 million</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="313647968"/>
+        <c:axId val="313655416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="313647968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Input </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>for Sort ( number of elements) in million</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.29138079615048118"/>
+              <c:y val="0.78203630796150481"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313655416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="313655416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Running</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Time in milli second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7777777777777776E-2"/>
+              <c:y val="0.11907771945173518"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313647968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -404,7 +1592,7 @@
   <dimension ref="B2:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,5 +1702,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>